--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H2">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I2">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J2">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>272.1938311403076</v>
+        <v>128.780808988496</v>
       </c>
       <c r="R2">
-        <v>2449.744480262768</v>
+        <v>1159.027280896464</v>
       </c>
       <c r="S2">
-        <v>0.004335918189475109</v>
+        <v>0.002846486003352171</v>
       </c>
       <c r="T2">
-        <v>0.005574184833618225</v>
+        <v>0.003384132514460595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H3">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I3">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J3">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>291.2866053639133</v>
+        <v>156.2267209077866</v>
       </c>
       <c r="R3">
-        <v>2621.57944827522</v>
+        <v>1406.04048817008</v>
       </c>
       <c r="S3">
-        <v>0.004640056996357183</v>
+        <v>0.003453132325433252</v>
       </c>
       <c r="T3">
-        <v>0.005965180662080115</v>
+        <v>0.00410536267013845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H4">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I4">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J4">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>146.2645206486729</v>
+        <v>88.19772592994843</v>
       </c>
       <c r="R4">
-        <v>1316.380685838056</v>
+        <v>793.7795333695359</v>
       </c>
       <c r="S4">
-        <v>0.002329924204742658</v>
+        <v>0.001949464321267897</v>
       </c>
       <c r="T4">
-        <v>0.002995312088009839</v>
+        <v>0.002317680672806501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H5">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I5">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J5">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>333.314787656783</v>
+        <v>96.18626724326667</v>
       </c>
       <c r="R5">
-        <v>1999.888725940698</v>
+        <v>577.1176034596</v>
       </c>
       <c r="S5">
-        <v>0.005309545938523161</v>
+        <v>0.002126037765821986</v>
       </c>
       <c r="T5">
-        <v>0.004550576394754023</v>
+        <v>0.001685070298797975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H6">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I6">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J6">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>167.1081765714398</v>
+        <v>94.88415284431998</v>
       </c>
       <c r="R6">
-        <v>1503.973589142958</v>
+        <v>853.9573755988799</v>
       </c>
       <c r="S6">
-        <v>0.00266195372382496</v>
+        <v>0.002097256688575483</v>
       </c>
       <c r="T6">
-        <v>0.003422163755570054</v>
+        <v>0.002493388178483923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J7">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>7749.26914477329</v>
+        <v>6835.948977054551</v>
       </c>
       <c r="R7">
-        <v>69743.42230295962</v>
+        <v>61523.54079349095</v>
       </c>
       <c r="S7">
-        <v>0.1234421694981061</v>
+        <v>0.1510973042928593</v>
       </c>
       <c r="T7">
-        <v>0.1586952149409838</v>
+        <v>0.1796366817552023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J8">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>8292.834168121835</v>
+        <v>8292.834168121833</v>
       </c>
       <c r="R8">
-        <v>74635.50751309651</v>
+        <v>74635.5075130965</v>
       </c>
       <c r="S8">
-        <v>0.1321009016303731</v>
+        <v>0.1832993329758328</v>
       </c>
       <c r="T8">
-        <v>0.1698267380050497</v>
+        <v>0.2179210548978446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J9">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>4164.102955932022</v>
+        <v>4681.715847919756</v>
       </c>
       <c r="R9">
-        <v>37476.9266033882</v>
+        <v>42135.4426312778</v>
       </c>
       <c r="S9">
-        <v>0.06633217833715643</v>
+        <v>0.1034815570537849</v>
       </c>
       <c r="T9">
-        <v>0.08527555325313856</v>
+        <v>0.1230272347941688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J10">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>9489.362740751978</v>
+        <v>5105.763974716459</v>
       </c>
       <c r="R10">
-        <v>56936.17644451186</v>
+        <v>30634.58384829876</v>
       </c>
       <c r="S10">
-        <v>0.1511610323488368</v>
+        <v>0.1128544369662131</v>
       </c>
       <c r="T10">
-        <v>0.1295534182353446</v>
+        <v>0.08944698108211156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J11">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>4757.515007299596</v>
+        <v>5036.6450767735</v>
       </c>
       <c r="R11">
-        <v>42817.63506569636</v>
+        <v>45329.8056909615</v>
       </c>
       <c r="S11">
-        <v>0.07578494990291651</v>
+        <v>0.1113266784662697</v>
       </c>
       <c r="T11">
-        <v>0.09742788030244019</v>
+        <v>0.1323541488983012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H12">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I12">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J12">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>14.33336522209511</v>
+        <v>5.559665998009</v>
       </c>
       <c r="R12">
-        <v>129.000286998856</v>
+        <v>50.03699398208099</v>
       </c>
       <c r="S12">
-        <v>0.0002283236865527514</v>
+        <v>0.0001228871877024728</v>
       </c>
       <c r="T12">
-        <v>0.0002935291615574091</v>
+        <v>0.0001460982161952717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H13">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I13">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J13">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>15.33876532577667</v>
+        <v>6.744548314563333</v>
       </c>
       <c r="R13">
-        <v>138.04888793199</v>
+        <v>60.70093483106999</v>
       </c>
       <c r="S13">
-        <v>0.0002443392317213923</v>
+        <v>0.0001490770443758587</v>
       </c>
       <c r="T13">
-        <v>0.000314118481991975</v>
+        <v>0.000177234833558959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H14">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I14">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J14">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>7.702095175005777</v>
+        <v>3.807631756671556</v>
       </c>
       <c r="R14">
-        <v>69.31885657505198</v>
+        <v>34.268685810044</v>
       </c>
       <c r="S14">
-        <v>0.0001226907106104164</v>
+        <v>8.416137921802476E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001577291518023813</v>
+        <v>0.000100057846600389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H15">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I15">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J15">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>17.5519135220485</v>
+        <v>4.152509396920834</v>
       </c>
       <c r="R15">
-        <v>105.311481132291</v>
+        <v>24.915056381525</v>
       </c>
       <c r="S15">
-        <v>0.0002795936292219463</v>
+        <v>9.178432695029433E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002396273022199123</v>
+        <v>7.27470817901047E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H16">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I16">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J16">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>8.799694380884556</v>
+        <v>4.09629511153</v>
       </c>
       <c r="R16">
-        <v>79.197249427961</v>
+        <v>36.86665600377</v>
       </c>
       <c r="S16">
-        <v>0.0001401749435983053</v>
+        <v>9.054180348883861E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001802065930477236</v>
+        <v>0.0001076434104167881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H17">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I17">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J17">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>6078.97641111138</v>
+        <v>3351.612171180093</v>
       </c>
       <c r="R17">
-        <v>36473.85846666828</v>
+        <v>20109.67302708056</v>
       </c>
       <c r="S17">
-        <v>0.09683520116494204</v>
+        <v>0.07408182328456371</v>
       </c>
       <c r="T17">
-        <v>0.08299315717475647</v>
+        <v>0.05871630415245919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H18">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I18">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J18">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>6505.380358775231</v>
+        <v>4065.911554452709</v>
       </c>
       <c r="R18">
-        <v>39032.28215265139</v>
+        <v>24395.46932671626</v>
       </c>
       <c r="S18">
-        <v>0.1036276131200339</v>
+        <v>0.08987022539710379</v>
       </c>
       <c r="T18">
-        <v>0.08881463228094673</v>
+        <v>0.07122998941855062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H19">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I19">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J19">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>3266.564003603271</v>
+        <v>2295.408562960865</v>
       </c>
       <c r="R19">
-        <v>19599.38402161963</v>
+        <v>13772.45137776519</v>
       </c>
       <c r="S19">
-        <v>0.05203480997703868</v>
+        <v>0.05073619584907635</v>
       </c>
       <c r="T19">
-        <v>0.04459672836974937</v>
+        <v>0.04021285890291851</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H20">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I20">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J20">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>7444.006806295813</v>
+        <v>2503.316033848738</v>
       </c>
       <c r="R20">
-        <v>29776.02722518325</v>
+        <v>10013.26413539495</v>
       </c>
       <c r="S20">
-        <v>0.1185794857244833</v>
+        <v>0.055331645361492</v>
       </c>
       <c r="T20">
-        <v>0.06775281287549489</v>
+        <v>0.02923676887938522</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H21">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I21">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J21">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>3732.070852693132</v>
+        <v>2469.42758026581</v>
       </c>
       <c r="R21">
-        <v>22392.42511615879</v>
+        <v>14816.56548159486</v>
       </c>
       <c r="S21">
-        <v>0.05945011254226672</v>
+        <v>0.05458259735071525</v>
       </c>
       <c r="T21">
-        <v>0.05095205539846162</v>
+        <v>0.04326146746098791</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H22">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J22">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>5.069369246713777</v>
+        <v>3.380230431297</v>
       </c>
       <c r="R22">
-        <v>45.624323220424</v>
+        <v>30.422073881673</v>
       </c>
       <c r="S22">
-        <v>8.075263952128948E-05</v>
+        <v>7.4714382417426E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001038142600538095</v>
+        <v>8.882649362719254E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H23">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J23">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>5.424955271856667</v>
+        <v>4.10062897059</v>
       </c>
       <c r="R23">
-        <v>48.82459744671</v>
+        <v>36.90566073531</v>
       </c>
       <c r="S23">
-        <v>8.641695567379427E-05</v>
+        <v>9.063759624904632E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001110962113753894</v>
+        <v>0.0001077572965887514</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H24">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J24">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>2.724047270856444</v>
+        <v>2.315008264828</v>
       </c>
       <c r="R24">
-        <v>24.516425437708</v>
+        <v>20.835074383452</v>
       </c>
       <c r="S24">
-        <v>4.339277661516197E-05</v>
+        <v>5.11694147228579E-05</v>
       </c>
       <c r="T24">
-        <v>5.578503715405676E-05</v>
+        <v>6.083433394916224E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H25">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J25">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>6.2076929772565</v>
+        <v>2.5246909858875</v>
       </c>
       <c r="R25">
-        <v>37.246157863539</v>
+        <v>15.148145915325</v>
       </c>
       <c r="S25">
-        <v>9.888559480574323E-05</v>
+        <v>5.580410319335806E-05</v>
       </c>
       <c r="T25">
-        <v>8.4750458648332E-05</v>
+        <v>4.422961734446366E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H26">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J26">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>3.11224191832989</v>
+        <v>2.49051317049</v>
       </c>
       <c r="R26">
-        <v>28.01017726496901</v>
+        <v>22.41461853441</v>
       </c>
       <c r="S26">
-        <v>4.957653260252437E-05</v>
+        <v>5.504865932001797E-05</v>
       </c>
       <c r="T26">
-        <v>6.373477175080756E-05</v>
+        <v>6.544629331145489E-05</v>
       </c>
     </row>
   </sheetData>
